--- a/smt-model-data.xlsx
+++ b/smt-model-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\shweta2019\Travel anlytics\notes\dashboard\Power Bi\clients\smt\modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005A553-0A05-44EF-972A-E57C4E573032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C1A65-3FFC-4558-8F6C-48F8F5E9D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="832" xr2:uid="{33281F7B-1B48-4FD2-9A7E-234E8300ACA4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="665">
   <si>
     <t>BookingID</t>
   </si>
@@ -2093,7 +2093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2120,6 +2120,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2436,12 +2439,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP150"/>
+  <dimension ref="A1:AP153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AI1" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="AG147" sqref="AG147"/>
+      <selection pane="bottomLeft" activeCell="AC147" sqref="AC147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19614,14 +19617,14 @@
         <v>4.5549499999999989</v>
       </c>
       <c r="AG130" s="9">
-        <f t="shared" ref="AG130:AG150" si="20">AD130-AA130</f>
+        <f t="shared" ref="AG130:AG153" si="20">AD130-AA130</f>
         <v>455.49499999999989</v>
       </c>
       <c r="AH130" s="4" t="s">
         <v>238</v>
       </c>
       <c r="AI130" s="5" t="str">
-        <f t="shared" ref="AI130:AI150" si="21">IF(O130&lt;=3,"ShortStay","LongStay")</f>
+        <f t="shared" ref="AI130:AI153" si="21">IF(O130&lt;=3,"ShortStay","LongStay")</f>
         <v>ShortStay</v>
       </c>
       <c r="AJ130" s="5" t="s">
@@ -22284,6 +22287,402 @@
       </c>
       <c r="AP150" s="4" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>8239</v>
+      </c>
+      <c r="B151" s="4">
+        <v>11</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F151" s="11">
+        <v>43816</v>
+      </c>
+      <c r="G151" s="12">
+        <v>0.59508101851851858</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K151" s="4">
+        <v>4</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="N151" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="O151" s="5">
+        <v>1</v>
+      </c>
+      <c r="P151" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="4">
+        <v>1</v>
+      </c>
+      <c r="R151" s="4">
+        <v>0</v>
+      </c>
+      <c r="S151" s="4">
+        <v>0</v>
+      </c>
+      <c r="T151" s="4">
+        <v>0</v>
+      </c>
+      <c r="U151" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="V151" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="W151" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="X151" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y151" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z151" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA151" s="9">
+        <f>AD151-(AD151*15%)</f>
+        <v>13217.5</v>
+      </c>
+      <c r="AB151" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD151" s="4">
+        <v>15550</v>
+      </c>
+      <c r="AE151" s="4">
+        <v>15550</v>
+      </c>
+      <c r="AF151" s="9">
+        <f t="shared" ref="AF151:AF153" si="22">AG151</f>
+        <v>2332.5</v>
+      </c>
+      <c r="AG151" s="9">
+        <f t="shared" si="20"/>
+        <v>2332.5</v>
+      </c>
+      <c r="AH151" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI151" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>ShortStay</v>
+      </c>
+      <c r="AJ151" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="AK151" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL151" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM151" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO151" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP151" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="152" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>8240</v>
+      </c>
+      <c r="B152" s="4">
+        <v>43</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F152" s="11">
+        <v>43823</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0.73961805555555549</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K152" s="4">
+        <v>4</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M152" s="11">
+        <v>43826</v>
+      </c>
+      <c r="N152" s="11">
+        <v>43826</v>
+      </c>
+      <c r="O152" s="5">
+        <v>2</v>
+      </c>
+      <c r="P152" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="4">
+        <v>1</v>
+      </c>
+      <c r="R152" s="4">
+        <v>0</v>
+      </c>
+      <c r="S152" s="4">
+        <v>0</v>
+      </c>
+      <c r="T152" s="4">
+        <v>0</v>
+      </c>
+      <c r="U152" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="V152" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W152" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="X152" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y152" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z152" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA152" s="9">
+        <f t="shared" ref="AA152:AA153" si="23">AD152-(AD152*25%)</f>
+        <v>1500</v>
+      </c>
+      <c r="AB152" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC152" s="4">
+        <v>191.76</v>
+      </c>
+      <c r="AD152" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AE152" s="4">
+        <v>1689.98</v>
+      </c>
+      <c r="AF152" s="9">
+        <f t="shared" si="22"/>
+        <v>500</v>
+      </c>
+      <c r="AG152" s="9">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="AH152" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI152" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>ShortStay</v>
+      </c>
+      <c r="AJ152" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="AK152" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="AL152" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM152" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO152" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP152" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>8241</v>
+      </c>
+      <c r="B153" s="4">
+        <v>33</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F153" s="11">
+        <v>43824</v>
+      </c>
+      <c r="G153" s="12">
+        <v>0.27656249999999999</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K153" s="4">
+        <v>5</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M153" s="11">
+        <v>43826</v>
+      </c>
+      <c r="N153" s="11">
+        <v>43824</v>
+      </c>
+      <c r="O153" s="5">
+        <v>2</v>
+      </c>
+      <c r="P153" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="4">
+        <v>1</v>
+      </c>
+      <c r="R153" s="4">
+        <v>0</v>
+      </c>
+      <c r="S153" s="4">
+        <v>0</v>
+      </c>
+      <c r="T153" s="4">
+        <v>0</v>
+      </c>
+      <c r="U153" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="V153" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W153" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="X153" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y153" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z153" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA153" s="9">
+        <f t="shared" si="23"/>
+        <v>2175</v>
+      </c>
+      <c r="AB153" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="4">
+        <v>247.4</v>
+      </c>
+      <c r="AD153" s="4">
+        <v>2900</v>
+      </c>
+      <c r="AE153" s="4">
+        <v>2179.8000000000002</v>
+      </c>
+      <c r="AF153" s="9">
+        <f t="shared" si="22"/>
+        <v>725</v>
+      </c>
+      <c r="AG153" s="9">
+        <f t="shared" si="20"/>
+        <v>725</v>
+      </c>
+      <c r="AH153" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI153" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>ShortStay</v>
+      </c>
+      <c r="AJ153" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="AK153" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL153" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="AM153" s="4">
+        <v>20</v>
+      </c>
+      <c r="AN153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO153" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP153" s="4" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
